--- a/wzorek.xlsx
+++ b/wzorek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smieci\PR\MatrixMultiplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF051FB9-E321-48CF-AC93-64DE0067AB02}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CFABF70F-03CA-499F-A1E6-8528FFC6E46D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{7034CAA3-77B5-4977-AB7C-F03AF2BEEB75}"/>
   </bookViews>
@@ -96,12 +96,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -110,13 +107,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>stronki</a:t>
+              <a:t>Liczba stron od wymiaru macierzy</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> od n</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -133,12 +125,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -158,8 +147,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Wymagana liczba stron</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -168,26 +160,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$1:$B$203</c:f>
+              <c:f>Arkusz1!$B$1:$B$204</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="203"/>
+                <c:ptCount val="204"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -384,1036 +364,370 @@
                   <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>760</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>770</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>780</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>790</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>810</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>820</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>830</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>840</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>850</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>860</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>870</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>880</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>890</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>910</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>920</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>930</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>940</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>950</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>960</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>970</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>980</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>990</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1010</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1080</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1130</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1170</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1180</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1190</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1210</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1220</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1230</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1240</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1260</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1290</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1310</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1320</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1330</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1340</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1370</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1380</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1390</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1420</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1430</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1450</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1460</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1470</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1480</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1490</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1510</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1530</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1540</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1560</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1570</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1580</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1590</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1610</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1620</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1630</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1640</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1660</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1690</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1710</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1720</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1730</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1740</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1750</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1770</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1780</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1790</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1810</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1820</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1830</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1860</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>1870</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1880</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1890</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1910</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1930</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1940</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2060</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2070</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>2080</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>2090</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>2110</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>2120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$1:$A$203</c:f>
+              <c:f>Arkusz1!$A$1:$A$204</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="203"/>
+                <c:ptCount val="204"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>77</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>80</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>82</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>87</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>119</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>122</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>126</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>129</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>132</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>136</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>139</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>142</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>146</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>149</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>152</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>156</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>159</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>162</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>166</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>169</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>172</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>262</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>267</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>272</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>277</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>282</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>287</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>292</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>297</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>302</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>307</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>312</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>317</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>322</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>327</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>332</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>337</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>342</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>347</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>352</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>357</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>362</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>367</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>372</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>377</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>382</c:v>
+                  <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>387</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>392</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>397</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>402</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>407</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>412</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>417</c:v>
+                  <c:v>659</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>422</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>427</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>432</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>437</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>442</c:v>
+                  <c:v>742</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>447</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>452</c:v>
+                  <c:v>776</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>457</c:v>
+                  <c:v>794</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>462</c:v>
+                  <c:v>811</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>467</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>472</c:v>
+                  <c:v>847</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>477</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>482</c:v>
+                  <c:v>884</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>487</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>492</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>497</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>502</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2084</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2104</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2124</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2144</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2164</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2184</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2204</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2224</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2244</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2264</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2284</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2304</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2324</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2344</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2364</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2384</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2404</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2424</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2444</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2464</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2484</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2504</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2524</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2544</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2564</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2584</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2604</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2624</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2644</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2664</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2684</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2704</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2724</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2744</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2764</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2784</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2804</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2824</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2844</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2864</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2884</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2904</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2924</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2944</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2964</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2984</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>3004</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>3024</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>3044</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>3064</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3084</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>3104</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>3124</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>3144</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>3164</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>3184</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>3204</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>3224</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>3264</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>3284</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>3304</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>3324</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>3344</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>3364</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>3384</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>3404</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>3424</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>3444</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>3464</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>3484</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>3504</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>3524</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>3544</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>3564</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>3584</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>3604</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>3624</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>3644</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>3664</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>3684</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>3704</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>3724</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>3744</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>3764</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>3784</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>3804</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>3824</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>3844</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>3864</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>3884</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>3904</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>3924</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>3944</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>3964</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>3984</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>4004</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>4024</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>4044</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>4064</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>4084</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>6156</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>6186</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>6216</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>6246</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>6276</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>6306</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>6336</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>6366</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,6 +736,158 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C56B-460F-82AD-2A10A43D2B31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Granica lokalności przestrzennej</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C56B-460F-82AD-2A10A43D2B31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12247474747474753"/>
+                  <c:y val="-4.0053229327642458E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>(749, 550)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C56B-460F-82AD-2A10A43D2B31}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>749</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1000</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>550</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>550</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>550</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C56B-460F-82AD-2A10A43D2B31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1440,6 +906,8 @@
         <c:axId val="98459327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1447,7 +915,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1464,12 +932,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1478,7 +943,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>n</a:t>
+                  <a:t>Rozmiar macierzy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1496,12 +961,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1520,9 +982,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1536,10 +998,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1557,6 +1016,7 @@
         <c:axId val="2031761983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1564,7 +1024,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1581,12 +1041,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1595,7 +1052,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>stronki</a:t>
+                  <a:t>Liczba stron</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1613,12 +1070,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1635,14 +1089,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1653,10 +1106,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1678,6 +1128,34 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1695,7 +1173,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1763,35 +1241,29 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1804,7 +1276,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1812,7 +1284,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1820,17 +1292,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1839,9 +1308,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1864,35 +1332,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1904,18 +1372,19 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -1924,10 +1393,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1943,21 +1412,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1967,23 +1431,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1992,17 +1455,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2011,14 +1474,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2030,26 +1492,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2063,17 +1519,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2082,17 +1537,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2101,17 +1556,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2120,27 +1574,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2148,11 +1599,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2160,17 +1619,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2179,12 +1638,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2193,14 +1649,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2209,10 +1664,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -2221,20 +1673,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2243,20 +1694,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2266,14 +1713,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2283,15 +1724,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2616,17 +2057,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03823DCC-3BEF-4C16-80B4-FA0888F2E437}">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <f>ROUNDUP(B1/1024,0)  * 2 + ROUNDUP(B1/ROUNDUP(1024/B1,0) *ROUNDUP(B1/1024,0),0)</f>
+        <f>ROUNDUP(B1/1024,0)  * 2 + ROUNDUP(B1*B1/1024,0)</f>
         <v>12</v>
       </c>
       <c r="B1">
@@ -2635,8 +2076,8 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>ROUNDUP(B2/1024,0)  * 2 + ROUNDUP(B2/ROUNDUP(1024/B2,0) *ROUNDUP(B2/1024,0),0)</f>
-        <v>13</v>
+        <f t="shared" ref="A2:A66" si="0">ROUNDUP(B2/1024,0)  * 2 + ROUNDUP(B2*B2/1024,0)</f>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>110</v>
@@ -2644,8 +2085,8 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">ROUNDUP(B3/1024,0)  * 2 + ROUNDUP(B3/ROUNDUP(1024/B3,0) *ROUNDUP(B3/1024,0),0)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>120</v>
@@ -2663,7 +2104,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>140</v>
@@ -2681,7 +2122,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>160</v>
@@ -2690,7 +2131,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>170</v>
@@ -2699,7 +2140,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>180</v>
@@ -2708,7 +2149,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>190</v>
@@ -2717,7 +2158,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -2726,7 +2167,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>210</v>
@@ -2735,7 +2176,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>220</v>
@@ -2744,7 +2185,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>230</v>
@@ -2753,7 +2194,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>240</v>
@@ -2762,7 +2203,7 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>250</v>
@@ -2771,7 +2212,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B17">
         <v>260</v>
@@ -2780,7 +2221,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B18">
         <v>270</v>
@@ -2789,7 +2230,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>280</v>
@@ -2798,7 +2239,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B20">
         <v>290</v>
@@ -2807,7 +2248,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>300</v>
@@ -2816,7 +2257,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B22">
         <v>310</v>
@@ -2825,7 +2266,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B23">
         <v>320</v>
@@ -2834,7 +2275,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B24">
         <v>330</v>
@@ -2843,7 +2284,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B25">
         <v>340</v>
@@ -2852,7 +2293,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B26">
         <v>350</v>
@@ -2861,7 +2302,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B27">
         <v>360</v>
@@ -2870,7 +2311,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B28">
         <v>370</v>
@@ -2879,7 +2320,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B29">
         <v>380</v>
@@ -2888,7 +2329,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B30">
         <v>390</v>
@@ -2897,7 +2338,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B31">
         <v>400</v>
@@ -2906,7 +2347,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B32">
         <v>410</v>
@@ -2915,7 +2356,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B33">
         <v>420</v>
@@ -2924,7 +2365,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="B34">
         <v>430</v>
@@ -2933,7 +2374,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="B35">
         <v>440</v>
@@ -2942,7 +2383,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="B36">
         <v>450</v>
@@ -2951,7 +2392,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="B37">
         <v>460</v>
@@ -2960,7 +2401,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="B38">
         <v>470</v>
@@ -2969,7 +2410,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="B39">
         <v>480</v>
@@ -2978,7 +2419,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="B40">
         <v>490</v>
@@ -2987,7 +2428,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="B41">
         <v>500</v>
@@ -2996,7 +2437,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="B42">
         <v>510</v>
@@ -3005,7 +2446,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B43">
         <v>520</v>
@@ -3014,7 +2455,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B44">
         <v>530</v>
@@ -3023,7 +2464,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B45">
         <v>540</v>
@@ -3032,7 +2473,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="B46">
         <v>550</v>
@@ -3041,7 +2482,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="B47">
         <v>560</v>
@@ -3050,7 +2491,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="B48">
         <v>570</v>
@@ -3059,7 +2500,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="B49">
         <v>580</v>
@@ -3068,7 +2509,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="B50">
         <v>590</v>
@@ -3077,7 +2518,7 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="B51">
         <v>600</v>
@@ -3086,7 +2527,7 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="B52">
         <v>610</v>
@@ -3095,7 +2536,7 @@
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="B53">
         <v>620</v>
@@ -3104,7 +2545,7 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>390</v>
       </c>
       <c r="B54">
         <v>630</v>
@@ -3113,7 +2554,7 @@
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="B55">
         <v>640</v>
@@ -3122,7 +2563,7 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>415</v>
       </c>
       <c r="B56">
         <v>650</v>
@@ -3131,7 +2572,7 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="B57">
         <v>660</v>
@@ -3140,7 +2581,7 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="B58">
         <v>670</v>
@@ -3149,7 +2590,7 @@
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>454</v>
       </c>
       <c r="B59">
         <v>680</v>
@@ -3158,7 +2599,7 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>467</v>
       </c>
       <c r="B60">
         <v>690</v>
@@ -3167,7 +2608,7 @@
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>481</v>
       </c>
       <c r="B61">
         <v>700</v>
@@ -3176,7 +2617,7 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>495</v>
       </c>
       <c r="B62">
         <v>710</v>
@@ -3185,7 +2626,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>509</v>
       </c>
       <c r="B63">
         <v>720</v>
@@ -3194,7 +2635,7 @@
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>523</v>
       </c>
       <c r="B64">
         <v>730</v>
@@ -3203,7 +2644,7 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>537</v>
       </c>
       <c r="B65">
         <v>740</v>
@@ -3212,1243 +2653,244 @@
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>550</v>
       </c>
       <c r="B66">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" ref="A67:A130" si="1">ROUNDUP(B67/1024,0)  * 2 + ROUNDUP(B67/ROUNDUP(1024/B67,0) *ROUNDUP(B67/1024,0),0)</f>
-        <v>382</v>
+        <f t="shared" ref="A67:A92" si="1">ROUNDUP(B67/1024,0)  * 2 + ROUNDUP(B67*B67/1024,0)</f>
+        <v>552</v>
       </c>
       <c r="B67">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="1"/>
-        <v>387</v>
+        <v>567</v>
       </c>
       <c r="B68">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>392</v>
+        <v>582</v>
       </c>
       <c r="B69">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>397</v>
+        <v>597</v>
       </c>
       <c r="B70">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>402</v>
+        <v>612</v>
       </c>
       <c r="B71">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>407</v>
+        <v>627</v>
       </c>
       <c r="B72">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>412</v>
+        <v>643</v>
       </c>
       <c r="B73">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>659</v>
       </c>
       <c r="B74">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>422</v>
+        <v>675</v>
       </c>
       <c r="B75">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>427</v>
+        <v>692</v>
       </c>
       <c r="B76">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>432</v>
+        <v>708</v>
       </c>
       <c r="B77">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>437</v>
+        <v>725</v>
       </c>
       <c r="B78">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>442</v>
+        <v>742</v>
       </c>
       <c r="B79">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>447</v>
+        <v>759</v>
       </c>
       <c r="B80">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>452</v>
+        <v>776</v>
       </c>
       <c r="B81">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>457</v>
+        <v>794</v>
       </c>
       <c r="B82">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>462</v>
+        <v>811</v>
       </c>
       <c r="B83">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>467</v>
+        <v>829</v>
       </c>
       <c r="B84">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>847</v>
       </c>
       <c r="B85">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>477</v>
+        <v>865</v>
       </c>
       <c r="B86">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>482</v>
+        <v>884</v>
       </c>
       <c r="B87">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
-        <v>487</v>
+        <v>902</v>
       </c>
       <c r="B88">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
-        <v>492</v>
+        <v>921</v>
       </c>
       <c r="B89">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
-        <v>497</v>
+        <v>940</v>
       </c>
       <c r="B90">
-        <v>990</v>
+        <v>980</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
-        <v>502</v>
+        <v>960</v>
       </c>
       <c r="B91">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="1"/>
-        <v>507</v>
+        <v>979</v>
       </c>
       <c r="B92">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <f t="shared" si="1"/>
-        <v>512</v>
-      </c>
-      <c r="B93">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <f t="shared" si="1"/>
-        <v>2064</v>
-      </c>
-      <c r="B94">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <f t="shared" si="1"/>
-        <v>2084</v>
-      </c>
-      <c r="B95">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <f t="shared" si="1"/>
-        <v>2104</v>
-      </c>
-      <c r="B96">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>2124</v>
-      </c>
-      <c r="B97">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <f t="shared" si="1"/>
-        <v>2144</v>
-      </c>
-      <c r="B98">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <f t="shared" si="1"/>
-        <v>2164</v>
-      </c>
-      <c r="B99">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>2184</v>
-      </c>
-      <c r="B100">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <f t="shared" si="1"/>
-        <v>2204</v>
-      </c>
-      <c r="B101">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <f t="shared" si="1"/>
-        <v>2224</v>
-      </c>
-      <c r="B102">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <f t="shared" si="1"/>
-        <v>2244</v>
-      </c>
-      <c r="B103">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <f t="shared" si="1"/>
-        <v>2264</v>
-      </c>
-      <c r="B104">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <f t="shared" si="1"/>
-        <v>2284</v>
-      </c>
-      <c r="B105">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <f t="shared" si="1"/>
-        <v>2304</v>
-      </c>
-      <c r="B106">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <f t="shared" si="1"/>
-        <v>2324</v>
-      </c>
-      <c r="B107">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <f t="shared" si="1"/>
-        <v>2344</v>
-      </c>
-      <c r="B108">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <f t="shared" si="1"/>
-        <v>2364</v>
-      </c>
-      <c r="B109">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <f t="shared" si="1"/>
-        <v>2384</v>
-      </c>
-      <c r="B110">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <f t="shared" si="1"/>
-        <v>2404</v>
-      </c>
-      <c r="B111">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <f t="shared" si="1"/>
-        <v>2424</v>
-      </c>
-      <c r="B112">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <f t="shared" si="1"/>
-        <v>2444</v>
-      </c>
-      <c r="B113">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <f t="shared" si="1"/>
-        <v>2464</v>
-      </c>
-      <c r="B114">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <f t="shared" si="1"/>
-        <v>2484</v>
-      </c>
-      <c r="B115">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <f t="shared" si="1"/>
-        <v>2504</v>
-      </c>
-      <c r="B116">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <f t="shared" si="1"/>
-        <v>2524</v>
-      </c>
-      <c r="B117">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <f t="shared" si="1"/>
-        <v>2544</v>
-      </c>
-      <c r="B118">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <f t="shared" si="1"/>
-        <v>2564</v>
-      </c>
-      <c r="B119">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <f t="shared" si="1"/>
-        <v>2584</v>
-      </c>
-      <c r="B120">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <f t="shared" si="1"/>
-        <v>2604</v>
-      </c>
-      <c r="B121">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <f t="shared" si="1"/>
-        <v>2624</v>
-      </c>
-      <c r="B122">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <f t="shared" si="1"/>
-        <v>2644</v>
-      </c>
-      <c r="B123">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <f t="shared" si="1"/>
-        <v>2664</v>
-      </c>
-      <c r="B124">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <f t="shared" si="1"/>
-        <v>2684</v>
-      </c>
-      <c r="B125">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <f t="shared" si="1"/>
-        <v>2704</v>
-      </c>
-      <c r="B126">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <f t="shared" si="1"/>
-        <v>2724</v>
-      </c>
-      <c r="B127">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <f t="shared" si="1"/>
-        <v>2744</v>
-      </c>
-      <c r="B128">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <f t="shared" si="1"/>
-        <v>2764</v>
-      </c>
-      <c r="B129">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <f t="shared" si="1"/>
-        <v>2784</v>
-      </c>
-      <c r="B130">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <f t="shared" ref="A131:A194" si="2">ROUNDUP(B131/1024,0)  * 2 + ROUNDUP(B131/ROUNDUP(1024/B131,0) *ROUNDUP(B131/1024,0),0)</f>
-        <v>2804</v>
-      </c>
-      <c r="B131">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <f t="shared" si="2"/>
-        <v>2824</v>
-      </c>
-      <c r="B132">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <f t="shared" si="2"/>
-        <v>2844</v>
-      </c>
-      <c r="B133">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <f t="shared" si="2"/>
-        <v>2864</v>
-      </c>
-      <c r="B134">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <f t="shared" si="2"/>
-        <v>2884</v>
-      </c>
-      <c r="B135">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <f t="shared" si="2"/>
-        <v>2904</v>
-      </c>
-      <c r="B136">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <f t="shared" si="2"/>
-        <v>2924</v>
-      </c>
-      <c r="B137">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <f t="shared" si="2"/>
-        <v>2944</v>
-      </c>
-      <c r="B138">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <f t="shared" si="2"/>
-        <v>2964</v>
-      </c>
-      <c r="B139">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <f t="shared" si="2"/>
-        <v>2984</v>
-      </c>
-      <c r="B140">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <f t="shared" si="2"/>
-        <v>3004</v>
-      </c>
-      <c r="B141">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <f t="shared" si="2"/>
-        <v>3024</v>
-      </c>
-      <c r="B142">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <f t="shared" si="2"/>
-        <v>3044</v>
-      </c>
-      <c r="B143">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <f t="shared" si="2"/>
-        <v>3064</v>
-      </c>
-      <c r="B144">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <f t="shared" si="2"/>
-        <v>3084</v>
-      </c>
-      <c r="B145">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <f t="shared" si="2"/>
-        <v>3104</v>
-      </c>
-      <c r="B146">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <f t="shared" si="2"/>
-        <v>3124</v>
-      </c>
-      <c r="B147">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <f t="shared" si="2"/>
-        <v>3144</v>
-      </c>
-      <c r="B148">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <f t="shared" si="2"/>
-        <v>3164</v>
-      </c>
-      <c r="B149">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <f t="shared" si="2"/>
-        <v>3184</v>
-      </c>
-      <c r="B150">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <f t="shared" si="2"/>
-        <v>3204</v>
-      </c>
-      <c r="B151">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <f t="shared" si="2"/>
-        <v>3224</v>
-      </c>
-      <c r="B152">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <f t="shared" si="2"/>
-        <v>3244</v>
-      </c>
-      <c r="B153">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <f t="shared" si="2"/>
-        <v>3264</v>
-      </c>
-      <c r="B154">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <f t="shared" si="2"/>
-        <v>3284</v>
-      </c>
-      <c r="B155">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <f t="shared" si="2"/>
-        <v>3304</v>
-      </c>
-      <c r="B156">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <f t="shared" si="2"/>
-        <v>3324</v>
-      </c>
-      <c r="B157">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <f t="shared" si="2"/>
-        <v>3344</v>
-      </c>
-      <c r="B158">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <f t="shared" si="2"/>
-        <v>3364</v>
-      </c>
-      <c r="B159">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <f t="shared" si="2"/>
-        <v>3384</v>
-      </c>
-      <c r="B160">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <f t="shared" si="2"/>
-        <v>3404</v>
-      </c>
-      <c r="B161">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <f t="shared" si="2"/>
-        <v>3424</v>
-      </c>
-      <c r="B162">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <f t="shared" si="2"/>
-        <v>3444</v>
-      </c>
-      <c r="B163">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <f t="shared" si="2"/>
-        <v>3464</v>
-      </c>
-      <c r="B164">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <f t="shared" si="2"/>
-        <v>3484</v>
-      </c>
-      <c r="B165">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <f t="shared" si="2"/>
-        <v>3504</v>
-      </c>
-      <c r="B166">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <f t="shared" si="2"/>
-        <v>3524</v>
-      </c>
-      <c r="B167">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <f t="shared" si="2"/>
-        <v>3544</v>
-      </c>
-      <c r="B168">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <f t="shared" si="2"/>
-        <v>3564</v>
-      </c>
-      <c r="B169">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <f t="shared" si="2"/>
-        <v>3584</v>
-      </c>
-      <c r="B170">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <f t="shared" si="2"/>
-        <v>3604</v>
-      </c>
-      <c r="B171">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <f t="shared" si="2"/>
-        <v>3624</v>
-      </c>
-      <c r="B172">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <f t="shared" si="2"/>
-        <v>3644</v>
-      </c>
-      <c r="B173">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <f t="shared" si="2"/>
-        <v>3664</v>
-      </c>
-      <c r="B174">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <f t="shared" si="2"/>
-        <v>3684</v>
-      </c>
-      <c r="B175">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <f t="shared" si="2"/>
-        <v>3704</v>
-      </c>
-      <c r="B176">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <f t="shared" si="2"/>
-        <v>3724</v>
-      </c>
-      <c r="B177">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <f t="shared" si="2"/>
-        <v>3744</v>
-      </c>
-      <c r="B178">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <f t="shared" si="2"/>
-        <v>3764</v>
-      </c>
-      <c r="B179">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <f t="shared" si="2"/>
-        <v>3784</v>
-      </c>
-      <c r="B180">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <f t="shared" si="2"/>
-        <v>3804</v>
-      </c>
-      <c r="B181">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <f t="shared" si="2"/>
-        <v>3824</v>
-      </c>
-      <c r="B182">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <f t="shared" si="2"/>
-        <v>3844</v>
-      </c>
-      <c r="B183">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <f t="shared" si="2"/>
-        <v>3864</v>
-      </c>
-      <c r="B184">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <f t="shared" si="2"/>
-        <v>3884</v>
-      </c>
-      <c r="B185">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <f t="shared" si="2"/>
-        <v>3904</v>
-      </c>
-      <c r="B186">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <f t="shared" si="2"/>
-        <v>3924</v>
-      </c>
-      <c r="B187">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <f t="shared" si="2"/>
-        <v>3944</v>
-      </c>
-      <c r="B188">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <f t="shared" si="2"/>
-        <v>3964</v>
-      </c>
-      <c r="B189">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <f t="shared" si="2"/>
-        <v>3984</v>
-      </c>
-      <c r="B190">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <f t="shared" si="2"/>
-        <v>4004</v>
-      </c>
-      <c r="B191">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <f t="shared" si="2"/>
-        <v>4024</v>
-      </c>
-      <c r="B192">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <f t="shared" si="2"/>
-        <v>4044</v>
-      </c>
-      <c r="B193">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <f t="shared" si="2"/>
-        <v>4064</v>
-      </c>
-      <c r="B194">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <f t="shared" ref="A195:A203" si="3">ROUNDUP(B195/1024,0)  * 2 + ROUNDUP(B195/ROUNDUP(1024/B195,0) *ROUNDUP(B195/1024,0),0)</f>
-        <v>4084</v>
-      </c>
-      <c r="B195">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <f t="shared" si="3"/>
-        <v>6156</v>
-      </c>
-      <c r="B196">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <f t="shared" si="3"/>
-        <v>6186</v>
-      </c>
-      <c r="B197">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <f t="shared" si="3"/>
-        <v>6216</v>
-      </c>
-      <c r="B198">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <f t="shared" si="3"/>
-        <v>6246</v>
-      </c>
-      <c r="B199">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <f t="shared" si="3"/>
-        <v>6276</v>
-      </c>
-      <c r="B200">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <f t="shared" si="3"/>
-        <v>6306</v>
-      </c>
-      <c r="B201">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <f t="shared" si="3"/>
-        <v>6336</v>
-      </c>
-      <c r="B202">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <f t="shared" si="3"/>
-        <v>6366</v>
-      </c>
-      <c r="B203">
-        <v>2120</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
